--- a/s1cDNASample/s1cDNASample_3275.xlsx
+++ b/s1cDNASample/s1cDNASample_3275.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C32AE43-1DD8-C34E-8340-3BDCD86CBEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E79792F-D472-CF4B-8875-E6C9BA883EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="18460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="13">
   <si>
     <t>rnaDate</t>
   </si>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B35 E2:E35"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -553,22 +553,22 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -576,22 +576,22 @@
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -605,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -645,22 +645,22 @@
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
@@ -668,22 +668,22 @@
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
@@ -691,22 +691,22 @@
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
@@ -714,22 +714,22 @@
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
@@ -737,22 +737,22 @@
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
@@ -760,22 +760,22 @@
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -783,22 +783,22 @@
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
@@ -806,22 +806,22 @@
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
@@ -829,22 +829,22 @@
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -852,22 +852,22 @@
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -875,22 +875,22 @@
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
@@ -898,22 +898,22 @@
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
@@ -921,22 +921,22 @@
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
@@ -950,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -959,7 +959,7 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
@@ -967,22 +967,22 @@
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
@@ -996,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -1005,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
@@ -1013,22 +1013,22 @@
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
@@ -1036,22 +1036,22 @@
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
@@ -1059,22 +1059,22 @@
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
@@ -1082,22 +1082,22 @@
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
@@ -1105,22 +1105,22 @@
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
@@ -1128,22 +1128,22 @@
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
@@ -1151,22 +1151,22 @@
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
@@ -1174,22 +1174,22 @@
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
@@ -1203,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1212,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>8</v>
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -1235,32 +1235,9 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-      <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/s1cDNASample/s1cDNASample_3275.xlsx
+++ b/s1cDNASample/s1cDNASample_3275.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E79792F-D472-CF4B-8875-E6C9BA883EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F612358-E12D-BC4A-8ABE-8AA3DF6D75CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="18460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11740" yWindow="460" windowWidth="16380" windowHeight="18460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="17">
   <si>
     <t>rnaDate</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>08.14.18</t>
+  </si>
+  <si>
+    <t>08.13.18</t>
+  </si>
+  <si>
+    <t>10.18.18</t>
+  </si>
+  <si>
+    <t>10.16.18</t>
   </si>
 </sst>
 </file>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,6 +1253,75 @@
         <v>8</v>
       </c>
     </row>
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>36</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/s1cDNASample/s1cDNASample_3275.xlsx
+++ b/s1cDNASample/s1cDNASample_3275.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F612358-E12D-BC4A-8ABE-8AA3DF6D75CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3390C26-E449-7047-8D37-6337047C6CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="460" windowWidth="16380" windowHeight="18460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="19">
   <si>
     <t>rnaDate</t>
   </si>
@@ -76,22 +76,20 @@
   </si>
   <si>
     <t>10.16.18</t>
+  </si>
+  <si>
+    <t>11.02.18</t>
+  </si>
+  <si>
+    <t>11.01.18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -107,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -115,33 +113,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -472,29 +449,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -513,11 +490,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -536,11 +513,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -559,11 +536,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -582,11 +559,11 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -605,11 +582,11 @@
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -628,11 +605,11 @@
       <c r="F7">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -651,11 +628,11 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -674,11 +651,11 @@
       <c r="F9">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -697,11 +674,11 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -720,11 +697,11 @@
       <c r="F11">
         <v>11</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -743,11 +720,11 @@
       <c r="F12">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -766,11 +743,11 @@
       <c r="F13">
         <v>13</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -789,11 +766,11 @@
       <c r="F14">
         <v>14</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -812,11 +789,11 @@
       <c r="F15">
         <v>15</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -835,11 +812,11 @@
       <c r="F16">
         <v>16</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -858,11 +835,11 @@
       <c r="F17">
         <v>17</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -881,11 +858,11 @@
       <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -904,11 +881,11 @@
       <c r="F19">
         <v>19</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -927,11 +904,11 @@
       <c r="F20">
         <v>20</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -950,11 +927,11 @@
       <c r="F21">
         <v>21</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -973,11 +950,11 @@
       <c r="F22">
         <v>22</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -996,11 +973,11 @@
       <c r="F23">
         <v>23</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1019,11 +996,11 @@
       <c r="F24">
         <v>24</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1042,11 +1019,11 @@
       <c r="F25">
         <v>25</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1065,11 +1042,11 @@
       <c r="F26">
         <v>26</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1088,11 +1065,11 @@
       <c r="F27">
         <v>27</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1111,11 +1088,11 @@
       <c r="F28">
         <v>28</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1134,11 +1111,11 @@
       <c r="F29">
         <v>29</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1157,11 +1134,11 @@
       <c r="F30">
         <v>30</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1180,11 +1157,11 @@
       <c r="F31">
         <v>31</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1203,11 +1180,11 @@
       <c r="F32">
         <v>32</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1226,11 +1203,11 @@
       <c r="F33">
         <v>33</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1249,11 +1226,11 @@
       <c r="F34">
         <v>34</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1272,11 +1249,11 @@
       <c r="F35">
         <v>35</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1295,11 +1272,11 @@
       <c r="F36">
         <v>36</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1318,7 +1295,99 @@
       <c r="F37">
         <v>37</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
         <v>8</v>
       </c>
     </row>
